--- a/Muestreo de Datos/TiendaRopa-MuestreoDatos.xlsx
+++ b/Muestreo de Datos/TiendaRopa-MuestreoDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A902B-8BF9-47FB-B88A-BED6A0ED2E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D290FDB-1CE1-4076-857F-85AB99821A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">TipoSede </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propio </t>
   </si>
   <si>
     <t>Tienda A</t>
@@ -286,6 +283,9 @@
   <si>
     <t>Objeto de dominio el cual representa una empresa que suministra productos a la tienda</t>
   </si>
+  <si>
+    <t>Externo</t>
+  </si>
 </sst>
 </file>
 
@@ -305,45 +305,53 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +559,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -576,7 +583,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1870,7 +1879,7 @@
   <dimension ref="A1:D998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1902,80 +1911,80 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>24</v>
+      <c r="C2" s="38" t="s">
+        <v>35</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>24</v>
+      <c r="B4" s="28" t="s">
+        <v>72</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="C4" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3018,10 +3027,10 @@
       <c r="F1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3061,8 +3070,8 @@
       <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>28</v>
+      <c r="F2" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>B2&amp;"-"&amp;E2</f>
@@ -3108,8 +3117,8 @@
       <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>29</v>
+      <c r="F3" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="10" t="str">
         <f t="shared" ref="G3:G4" si="0">B3&amp;"-"&amp;E3</f>
@@ -3155,8 +3164,8 @@
       <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>29</v>
+      <c r="F4" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="10" t="str">
         <f t="shared" si="0"/>
@@ -35091,16 +35100,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>7</v>
@@ -35111,15 +35120,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>300000</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <f>D2</f>
         <v>300000</v>
       </c>
@@ -35133,15 +35142,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>250000</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <f t="shared" ref="E3:E4" si="0">D3</f>
         <v>250000</v>
       </c>
@@ -35155,15 +35164,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>100000</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -35198,16 +35207,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>4</v>
@@ -35220,19 +35229,19 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>32425645</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="13" t="str">
@@ -35244,19 +35253,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>54647577</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="13" t="str">
@@ -35268,19 +35277,19 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>86975865</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="13" t="str">
@@ -35320,19 +35329,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>7</v>
@@ -35342,20 +35351,20 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>11234567</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>25</v>
+      <c r="F2" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="13" t="str">
         <f>B2&amp;"-"&amp;E2</f>
@@ -35366,20 +35375,20 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>23456789</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>26</v>
+      <c r="F3" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="G3" s="13" t="str">
         <f t="shared" ref="G3:G4" si="0">B3&amp;"-"&amp;E3</f>
@@ -35390,20 +35399,20 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>45678900</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>27</v>
+      <c r="F4" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -35453,10 +35462,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="13" t="str">
         <f>B2&amp;"-"&amp;C2</f>
@@ -35468,10 +35477,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
@@ -35483,10 +35492,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" si="0"/>
